--- a/2025/LamChuProject13.5.2025/OKR_Lam_chu_Project_Measurable.xlsx
+++ b/2025/LamChuProject13.5.2025/OKR_Lam_chu_Project_Measurable.xlsx
@@ -14,12 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="ComponentDinamicScrew">Sheet1!$F$2</definedName>
+    <definedName name="https___drive.google.com_file_d_1oIn9Yj3IttBYcAcdxNj5P71ECaCUMF1C_view?usp_sharing">Sheet1!$F$2</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Objective (Mục tiêu)</t>
   </si>
@@ -160,13 +164,22 @@
   </si>
   <si>
     <t xml:space="preserve">Kết Quả </t>
+  </si>
+  <si>
+    <t>14/5/2025</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oIn9Yj3IttBYcAcdxNj5P71ECaCUMF1C/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/Module-C-a-d-n-1f3ab5c7cdf580b797b2f561423fbcfa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +191,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,10 +247,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -237,8 +259,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,7 +568,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +578,7 @@
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -576,7 +601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -590,7 +615,10 @@
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,7 +635,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,6 +863,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>